--- a/data/long_razon/P30-Estudios-long_razon.xlsx
+++ b/data/long_razon/P30-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 160,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 123,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 113,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 56,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 103,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 64,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 27,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 31,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 137,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 55,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 1,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 92,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 17,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 106,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 20,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 82,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 9,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 45,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,13; 95,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 58,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 6,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P30-Estudios-long_razon.xlsx
+++ b/data/long_razon/P30-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P30-Estudios-long_razon.xlsx
+++ b/data/long_razon/P30-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.6697231298391823</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4103704308592552</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4083734450871612</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>0.1287433677612136</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1838280416245459</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.04361353248424679</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>0.3614128565577031</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2809815526056321</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1966650281978755</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.0054538557397368</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1058567670693596</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.758611940999929</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.2974235967698147</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1833566176417051</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3404288537589218</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.0448975801732388</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.05285984927798731</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5244783875228014</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.08118469323409</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.257852078274513</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0280514164087092</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.8452032020719789</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.717914280425451</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.6315449537298319</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>1.088030580501664</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7021269490801942</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1656209946633469</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1380568528403628</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01714551562569529</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3125073855341209</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.734317988495409</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2511423324030318</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1825864125275795</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.2055213940267628</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1216191816880464</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.03925643835896569</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4139479007054097</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2199887220975641</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.05767091654201708</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>0.2820839233068637</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4422293614118242</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3663889236240637</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.05480935631533647</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2716862733463864</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1591393374082157</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.2292284744723028</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3447602375730173</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9530168198229797</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>1.301900965893008</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.0428537522942368</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.07464115809570518</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.5418725976550454</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.06298091195396301</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3321889637928134</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.254029674889334</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1298009816782973</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.188482626568759</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.6468095494790633</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.05855960443236286</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4463280769322687</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.4189429463874579</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.09551962001523633</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.3047603750440569</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.121258284417784</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3486437408523325</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1556841578951728</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>0.1436605985130796</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.287054019372589</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.09511238270613774</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>0.09676199231299339</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2595514393907229</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.05322453624072807</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.8057640470576289</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.192719593414252</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7059245687663677</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.348428771639747</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2445976978398826</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.8858596521901497</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.8184047875111885</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.1031949452564632</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.6862616152999566</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1114817684298199</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02538757660365728</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07333138734898537</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.551811309728496</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1064269397888998</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.03887571215170645</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>0.303824736460665</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.04244499865699472</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05608391227740259</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1286610313238185</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.146931643566228</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2061593072289538</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>0.2448917725791842</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2407330845095542</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.131610515675013</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>0.09811423853154287</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1516966838300795</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1102652795713553</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.429256384852659</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.229104313357649</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3611315216923647</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.9277607618647312</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.05518078266014646</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2350909469383797</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.5244740671350455</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.08107062371835289</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2353724998088094</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
